--- a/manuscript/supplement/supplemental-tables.xlsx
+++ b/manuscript/supplement/supplemental-tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\spider-wgd\manuscript\supplement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1928A028-A3DE-490A-90DB-B576B01C4F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E94D7F-4811-478F-BAB3-66EFD37D1E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="4"/>
+    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableS1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="tableS3" sheetId="3" r:id="rId3"/>
     <sheet name="tableS4" sheetId="4" r:id="rId4"/>
     <sheet name="tableS5" sheetId="5" r:id="rId5"/>
+    <sheet name="tableS6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="544">
   <si>
     <t>Step</t>
   </si>
@@ -971,9 +972,6 @@
     <t>&lt;5&gt;</t>
   </si>
   <si>
-    <t># GRAMPA reconciliation scores for the ASTRAL-multi species tree</t>
-  </si>
-  <si>
     <t># h2.node: the second proposed parental lineage of a WGD</t>
   </si>
   <si>
@@ -1430,9 +1428,6 @@
     <t>((((((((((NCLAV+,TANTI+)&lt;1&gt;,ABRUE+)&lt;2&gt;,(PTEPI+,LHESP+)&lt;3&gt;)&lt;4&gt;,SMIMO+)&lt;5&gt;,LRECL+)&lt;6&gt;,CSCUL+)&lt;7&gt;,(LPOLY,((CROTU,TGIGA)&lt;8&gt;,((((((NCLAV*,TANTI*)&lt;9&gt;,ABRUE*)&lt;10&gt;,(PTEPI*,LHESP*)&lt;11&gt;)&lt;12&gt;,SMIMO*)&lt;13&gt;,LRECL*)&lt;14&gt;,CSCUL*)&lt;15&gt;)&lt;16&gt;)&lt;17&gt;)&lt;18&gt;,((MOCCI,VDEST)&lt;19&gt;,(ISCAP,HLONG)&lt;20&gt;)&lt;21&gt;)&lt;22&gt;,(TURTI,SSCAB)&lt;23&gt;)&lt;24&gt;,(DMELA,BMORI)&lt;25&gt;)&lt;26&gt;</t>
   </si>
   <si>
-    <t># GRAMPA reconciliation scores for the Ballesteros et al. (2022) species tree</t>
-  </si>
-  <si>
     <t>((((((((((NCLAV,TANTI)&lt;1&gt;,ABRUE)&lt;2&gt;,(PTEPI,LHESP)&lt;3&gt;)&lt;4&gt;,SMIMO)&lt;5&gt;,LRECL)&lt;6&gt;,CSCUL)&lt;7&gt;,((MOCCI,VDEST)&lt;8&gt;,(ISCAP,HLONG)&lt;9&gt;)&lt;10&gt;)&lt;11&gt;,(TURTI,SSCAB)&lt;12&gt;)&lt;13&gt;,(LPOLY,(CROTU,TGIGA)&lt;14&gt;)&lt;15&gt;)&lt;16&gt;,(DMELA,BMORI)&lt;17&gt;)&lt;18&gt;</t>
   </si>
   <si>
@@ -1604,14 +1599,71 @@
     <t>(((((((((((NCLAV,TANTI)&lt;1&gt;,ABRUE)&lt;2&gt;,(PTEPI,LHESP)&lt;3&gt;)&lt;4&gt;,SMIMO)&lt;5&gt;,LRECL)&lt;6&gt;,CSCUL)&lt;7&gt;,((MOCCI,VDEST)&lt;8&gt;,(ISCAP,HLONG)&lt;9&gt;)&lt;10&gt;)&lt;11&gt;,(LPOLY*,(CROTU*,TGIGA*)&lt;12&gt;)&lt;13&gt;)&lt;14&gt;,(TURTI,SSCAB)&lt;15&gt;)&lt;16&gt;,(LPOLY+,(CROTU+,TGIGA+)&lt;17&gt;)&lt;18&gt;)&lt;19&gt;,(DMELA,BMORI)&lt;20&gt;)&lt;21&gt;</t>
   </si>
   <si>
-    <t># GRAMPA reconciliation scores for the traditional Chelicerate species tree that places horseshoe crabs sister to all arachnids</t>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Paralog Sample Size</t>
+  </si>
+  <si>
+    <t>K-1</t>
+  </si>
+  <si>
+    <t>K-2</t>
+  </si>
+  <si>
+    <t>K-3</t>
+  </si>
+  <si>
+    <t>K-4</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>SLEDGe</t>
+  </si>
+  <si>
+    <t># Abbr: The four letter abbreviation of the species name (see Table S1)</t>
+  </si>
+  <si>
+    <t># Species: The species name</t>
+  </si>
+  <si>
+    <t>Paralog Sample Size: Number of paralog Ks values analyzed by SLEDGe</t>
+  </si>
+  <si>
+    <t>SLEDGe: Results from SVM in SLEDGe. Positive indicates the presence of WGD predicted, negative idicates absence predicted.</t>
+  </si>
+  <si>
+    <t>K-1-4: Median Ks of mixture model components (k) fit by normalmixEM. NAs placed in cells if less than 4 models were fit to the Ks distirbution.</t>
+  </si>
+  <si>
+    <t># Table S1: Sample summary</t>
+  </si>
+  <si>
+    <t># Table S2: Alignment filtering summary</t>
+  </si>
+  <si>
+    <t># Table S3: GRAMPA reconciliation scores for the ASTRAL-multi species tree</t>
+  </si>
+  <si>
+    <t># Table S4: GRAMPA reconciliation scores for the Ballesteros et al. (2022) species tree</t>
+  </si>
+  <si>
+    <t># Table S5: GRAMPA reconciliation scores for the traditional Chelicerate species tree that places horseshoe crabs sister to all arachnids</t>
+  </si>
+  <si>
+    <t># Table S6: Results of SLEDGe analysis on Ks distributions of chelicerates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1745,6 +1797,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="&quot;Liberation Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2088,8 +2172,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2444,221 +2545,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="28" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB2" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC2" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD2" t="s">
         <v>290</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE2" t="s">
         <v>291</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF2" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG2" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2">
-        <v>70</v>
-      </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2">
-        <v>17464</v>
-      </c>
-      <c r="X2">
-        <v>40146</v>
-      </c>
-      <c r="Y2">
-        <v>68653</v>
-      </c>
-      <c r="Z2">
-        <v>480636</v>
-      </c>
-      <c r="AA2">
-        <v>2738.7</v>
-      </c>
-      <c r="AB2">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="AC2">
-        <v>27135</v>
-      </c>
-      <c r="AD2">
-        <v>22249.044000000002</v>
-      </c>
-      <c r="AE2">
-        <v>10224</v>
-      </c>
-      <c r="AF2">
-        <v>27135</v>
-      </c>
-      <c r="AG2">
-        <v>27135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2669,97 +2677,94 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3">
         <v>70</v>
       </c>
-      <c r="L3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3">
-        <v>86</v>
-      </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="W3">
-        <v>1317723</v>
+        <v>17464</v>
       </c>
       <c r="X3">
-        <v>1834</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>47</v>
+        <v>40146</v>
+      </c>
+      <c r="Y3">
+        <v>68653</v>
+      </c>
+      <c r="Z3">
+        <v>480636</v>
       </c>
       <c r="AA3">
-        <v>1793.25</v>
+        <v>2738.7</v>
       </c>
       <c r="AB3">
-        <v>39.4</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AC3">
-        <v>20617</v>
+        <v>27135</v>
       </c>
       <c r="AD3">
-        <v>10994.121999999999</v>
+        <v>22249.044000000002</v>
       </c>
       <c r="AE3">
-        <v>5447</v>
+        <v>10224</v>
       </c>
       <c r="AF3">
-        <v>20617</v>
+        <v>27135</v>
       </c>
       <c r="AG3">
-        <v>20617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>27135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2770,37 +2775,37 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
         <v>73</v>
@@ -2821,46 +2826,46 @@
         <v>78</v>
       </c>
       <c r="U4">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="V4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W4">
-        <v>201508</v>
+        <v>1317723</v>
       </c>
       <c r="X4">
-        <v>15961</v>
-      </c>
-      <c r="Y4">
-        <v>161595</v>
-      </c>
-      <c r="Z4">
-        <v>39474</v>
+        <v>1834</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>47</v>
       </c>
       <c r="AA4">
-        <v>781.83</v>
+        <v>1793.25</v>
       </c>
       <c r="AB4">
-        <v>27.9</v>
+        <v>39.4</v>
       </c>
       <c r="AC4">
-        <v>17364</v>
+        <v>20617</v>
       </c>
       <c r="AD4">
-        <v>8399.098</v>
+        <v>10994.121999999999</v>
       </c>
       <c r="AE4">
-        <v>5375.5</v>
+        <v>5447</v>
       </c>
       <c r="AF4">
-        <v>17364</v>
+        <v>20617</v>
       </c>
       <c r="AG4">
-        <v>17364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>20617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2874,91 +2879,94 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s">
         <v>77</v>
       </c>
       <c r="T5" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="U5">
-        <v>96.9</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="W5">
-        <v>84235</v>
+        <v>201508</v>
       </c>
       <c r="X5">
-        <v>66479</v>
+        <v>15961</v>
       </c>
       <c r="Y5">
-        <v>59853</v>
+        <v>161595</v>
       </c>
       <c r="Z5">
-        <v>765179</v>
+        <v>39474</v>
       </c>
       <c r="AA5">
-        <v>1228.07</v>
+        <v>781.83</v>
       </c>
       <c r="AB5">
-        <v>29.7</v>
+        <v>27.9</v>
       </c>
       <c r="AC5">
-        <v>23512</v>
+        <v>17364</v>
       </c>
       <c r="AD5">
-        <v>25594.210999999999</v>
+        <v>8399.098</v>
       </c>
       <c r="AE5">
-        <v>11881.5</v>
+        <v>5375.5</v>
       </c>
       <c r="AF5">
-        <v>33890</v>
+        <v>17364</v>
       </c>
       <c r="AG5">
-        <v>19561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>17364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2969,97 +2977,94 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="U6">
+        <v>96.9</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>47</v>
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>84235</v>
+      </c>
+      <c r="X6">
+        <v>66479</v>
+      </c>
+      <c r="Y6">
+        <v>59853</v>
+      </c>
+      <c r="Z6">
+        <v>765179</v>
+      </c>
+      <c r="AA6">
+        <v>1228.07</v>
+      </c>
+      <c r="AB6">
+        <v>29.7</v>
       </c>
       <c r="AC6">
-        <v>19001</v>
+        <v>23512</v>
       </c>
       <c r="AD6">
-        <v>24672.503000000001</v>
+        <v>25594.210999999999</v>
       </c>
       <c r="AE6">
-        <v>14341</v>
+        <v>11881.5</v>
       </c>
       <c r="AF6">
-        <v>19001</v>
+        <v>33890</v>
       </c>
       <c r="AG6">
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>19561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3073,28 +3078,28 @@
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
@@ -3106,61 +3111,61 @@
         <v>73</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="S7" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
       </c>
       <c r="V7" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7">
-        <v>467125</v>
-      </c>
-      <c r="X7">
-        <v>7993</v>
-      </c>
-      <c r="Y7">
-        <v>180236</v>
-      </c>
-      <c r="Z7">
-        <v>62959</v>
-      </c>
-      <c r="AA7">
-        <v>2874.35</v>
-      </c>
-      <c r="AB7">
-        <v>32.200000000000003</v>
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>47</v>
       </c>
       <c r="AC7">
-        <v>22738</v>
+        <v>19001</v>
       </c>
       <c r="AD7">
-        <v>4625.2730000000001</v>
+        <v>24672.503000000001</v>
       </c>
       <c r="AE7">
-        <v>1580.5</v>
+        <v>14341</v>
       </c>
       <c r="AF7">
-        <v>22738</v>
+        <v>19001</v>
       </c>
       <c r="AG7">
-        <v>22738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3174,28 +3179,28 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
         <v>47</v>
@@ -3207,58 +3212,61 @@
         <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>116</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
       </c>
       <c r="R8" t="s">
         <v>98</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="U8">
-        <v>21.5</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W8">
-        <v>13922</v>
+        <v>467125</v>
       </c>
       <c r="X8">
-        <v>284772</v>
+        <v>7993</v>
       </c>
       <c r="Y8">
-        <v>2231</v>
+        <v>180236</v>
       </c>
       <c r="Z8">
-        <v>124235998</v>
+        <v>62959</v>
       </c>
       <c r="AA8">
-        <v>1670.29</v>
+        <v>2874.35</v>
       </c>
       <c r="AB8">
-        <v>29.347999999999999</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AC8">
-        <v>23259</v>
+        <v>22738</v>
       </c>
       <c r="AD8">
-        <v>28170.888999999999</v>
+        <v>4625.2730000000001</v>
       </c>
       <c r="AE8">
-        <v>13513</v>
+        <v>1580.5</v>
       </c>
       <c r="AF8">
-        <v>26307</v>
+        <v>22738</v>
       </c>
       <c r="AG8">
-        <v>23259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <v>22738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3266,43 +3274,43 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
         <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s">
         <v>47</v>
@@ -3311,96 +3319,96 @@
         <v>98</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="U9">
-        <v>181.1</v>
+        <v>21.5</v>
       </c>
       <c r="V9" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="W9">
-        <v>35614</v>
+        <v>13922</v>
       </c>
       <c r="X9">
-        <v>52294</v>
+        <v>284772</v>
       </c>
       <c r="Y9">
-        <v>8338</v>
+        <v>2231</v>
       </c>
       <c r="Z9">
-        <v>537465</v>
+        <v>124235998</v>
       </c>
       <c r="AA9">
-        <v>925.48</v>
+        <v>1670.29</v>
       </c>
       <c r="AB9">
-        <v>31.4</v>
+        <v>29.347999999999999</v>
       </c>
       <c r="AC9">
-        <v>28845</v>
+        <v>23259</v>
       </c>
       <c r="AD9">
-        <v>18206.345000000001</v>
+        <v>28170.888999999999</v>
       </c>
       <c r="AE9">
-        <v>6202</v>
+        <v>13513</v>
       </c>
       <c r="AF9">
-        <v>35529</v>
+        <v>26307</v>
       </c>
       <c r="AG9">
-        <v>24306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>23259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s">
         <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
         <v>47</v>
@@ -3409,52 +3417,52 @@
         <v>98</v>
       </c>
       <c r="S10" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="U10">
-        <v>17.7</v>
+        <v>181.1</v>
       </c>
       <c r="V10" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="W10">
-        <v>3993</v>
+        <v>35614</v>
       </c>
       <c r="X10">
-        <v>200706</v>
+        <v>52294</v>
       </c>
       <c r="Y10">
-        <v>2211</v>
+        <v>8338</v>
       </c>
       <c r="Z10">
-        <v>896831</v>
+        <v>537465</v>
       </c>
       <c r="AA10">
-        <v>151.69999999999999</v>
+        <v>925.48</v>
       </c>
       <c r="AB10">
-        <v>51.6</v>
+        <v>31.4</v>
       </c>
       <c r="AC10">
-        <v>12042</v>
+        <v>28845</v>
       </c>
       <c r="AD10">
-        <v>4994.3360000000002</v>
+        <v>18206.345000000001</v>
       </c>
       <c r="AE10">
-        <v>2510</v>
+        <v>6202</v>
       </c>
       <c r="AF10">
-        <v>11967</v>
+        <v>35529</v>
       </c>
       <c r="AG10">
-        <v>11611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>24306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3462,40 +3470,40 @@
         <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
         <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s">
         <v>73</v>
@@ -3503,59 +3511,56 @@
       <c r="P11" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" t="s">
-        <v>167</v>
-      </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="S11" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="T11" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="U11">
-        <v>6</v>
+        <v>17.7</v>
       </c>
       <c r="V11" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="W11">
-        <v>570637</v>
+        <v>3993</v>
       </c>
       <c r="X11">
-        <v>2942</v>
+        <v>200706</v>
       </c>
       <c r="Y11">
-        <v>369492</v>
+        <v>2211</v>
       </c>
       <c r="Z11">
-        <v>76228</v>
+        <v>896831</v>
       </c>
       <c r="AA11">
-        <v>2226.88</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="AB11">
-        <v>46.2</v>
+        <v>51.6</v>
       </c>
       <c r="AC11">
-        <v>20488</v>
+        <v>12042</v>
       </c>
       <c r="AD11">
-        <v>10833.51</v>
+        <v>4994.3360000000002</v>
       </c>
       <c r="AE11">
-        <v>4507</v>
+        <v>2510</v>
       </c>
       <c r="AF11">
-        <v>20488</v>
+        <v>11967</v>
       </c>
       <c r="AG11">
-        <v>20488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>11611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3569,34 +3574,34 @@
         <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
         <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O12" t="s">
         <v>73</v>
@@ -3604,154 +3609,157 @@
       <c r="P12" t="s">
         <v>47</v>
       </c>
+      <c r="Q12" t="s">
+        <v>167</v>
+      </c>
       <c r="R12" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="U12">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="V12" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="W12">
-        <v>9009</v>
+        <v>570637</v>
       </c>
       <c r="X12">
-        <v>740000</v>
+        <v>2942</v>
       </c>
       <c r="Y12">
-        <v>3886</v>
+        <v>369492</v>
       </c>
       <c r="Z12">
-        <v>204922340</v>
+        <v>76228</v>
       </c>
       <c r="AA12">
-        <v>3156.48</v>
+        <v>2226.88</v>
       </c>
       <c r="AB12">
-        <v>47.399700000000003</v>
+        <v>46.2</v>
       </c>
       <c r="AC12">
-        <v>25651</v>
+        <v>20488</v>
       </c>
       <c r="AD12">
-        <v>6394.6719999999996</v>
+        <v>10833.51</v>
       </c>
       <c r="AE12">
-        <v>1163</v>
+        <v>4507</v>
       </c>
       <c r="AF12">
-        <v>25651</v>
+        <v>20488</v>
       </c>
       <c r="AG12">
-        <v>25651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>20488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H13" t="s">
         <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K13" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L13" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s">
         <v>47</v>
       </c>
       <c r="R13" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="S13" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" t="s">
-        <v>47</v>
+        <v>179</v>
+      </c>
+      <c r="U13">
+        <v>95</v>
       </c>
       <c r="V13" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="W13">
-        <v>2036</v>
+        <v>9009</v>
       </c>
       <c r="X13">
-        <v>212780</v>
+        <v>740000</v>
       </c>
       <c r="Y13">
-        <v>641</v>
+        <v>3886</v>
       </c>
       <c r="Z13">
-        <v>2993488</v>
+        <v>204922340</v>
       </c>
       <c r="AA13">
-        <v>90.82</v>
+        <v>3156.48</v>
       </c>
       <c r="AB13">
-        <v>32.5</v>
+        <v>47.399700000000003</v>
       </c>
       <c r="AC13">
-        <v>17671</v>
+        <v>25651</v>
       </c>
       <c r="AD13">
-        <v>2726.3780000000002</v>
+        <v>6394.6719999999996</v>
       </c>
       <c r="AE13">
-        <v>1482</v>
+        <v>1163</v>
       </c>
       <c r="AF13">
-        <v>17671</v>
+        <v>25651</v>
       </c>
       <c r="AG13">
-        <v>17671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>25651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -3759,40 +3767,40 @@
         <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H14" t="s">
         <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J14" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L14" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="M14" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="O14" t="s">
         <v>59</v>
@@ -3800,97 +3808,94 @@
       <c r="P14" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" t="s">
-        <v>204</v>
-      </c>
       <c r="R14" t="s">
         <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14">
-        <v>174</v>
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
       </c>
       <c r="V14" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="W14">
-        <v>19811</v>
+        <v>2036</v>
       </c>
       <c r="X14">
-        <v>11197</v>
+        <v>212780</v>
       </c>
       <c r="Y14">
-        <v>18160</v>
+        <v>641</v>
       </c>
       <c r="Z14">
-        <v>11557</v>
+        <v>2993488</v>
       </c>
       <c r="AA14">
-        <v>56.57</v>
+        <v>90.82</v>
       </c>
       <c r="AB14">
-        <v>33.25</v>
+        <v>32.5</v>
       </c>
       <c r="AC14">
-        <v>10471</v>
+        <v>17671</v>
       </c>
       <c r="AD14">
-        <v>1456.9839999999999</v>
+        <v>2726.3780000000002</v>
       </c>
       <c r="AE14">
-        <v>1023</v>
+        <v>1482</v>
       </c>
       <c r="AF14">
-        <v>10471</v>
+        <v>17671</v>
       </c>
       <c r="AG14">
-        <v>10471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>17671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
         <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="J15" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N15" t="s">
         <v>47</v>
@@ -3901,94 +3906,97 @@
       <c r="P15" t="s">
         <v>47</v>
       </c>
+      <c r="Q15" t="s">
+        <v>204</v>
+      </c>
       <c r="R15" t="s">
         <v>60</v>
       </c>
       <c r="S15" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="T15" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="U15">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="V15" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="W15">
-        <v>201886</v>
+        <v>19811</v>
       </c>
       <c r="X15">
-        <v>556</v>
+        <v>11197</v>
       </c>
       <c r="Y15">
-        <v>1426</v>
+        <v>18160</v>
       </c>
       <c r="Z15">
-        <v>58536683</v>
+        <v>11557</v>
       </c>
       <c r="AA15">
-        <v>368.93</v>
+        <v>56.57</v>
       </c>
       <c r="AB15">
-        <v>40.9</v>
+        <v>33.25</v>
       </c>
       <c r="AC15">
-        <v>10260</v>
+        <v>10471</v>
       </c>
       <c r="AD15">
-        <v>21357.748</v>
+        <v>1456.9839999999999</v>
       </c>
       <c r="AE15">
-        <v>9078.5</v>
+        <v>1023</v>
       </c>
       <c r="AF15">
-        <v>32344</v>
+        <v>10471</v>
       </c>
       <c r="AG15">
-        <v>9797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="H16" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="K16" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="L16" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="N16" t="s">
         <v>47</v>
@@ -4000,55 +4008,55 @@
         <v>47</v>
       </c>
       <c r="R16" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="T16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="U16">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="V16" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="W16">
-        <v>469510</v>
+        <v>201886</v>
       </c>
       <c r="X16">
-        <v>11441</v>
+        <v>556</v>
       </c>
       <c r="Y16">
-        <v>286793</v>
+        <v>1426</v>
       </c>
       <c r="Z16">
-        <v>254089</v>
+        <v>58536683</v>
       </c>
       <c r="AA16">
-        <v>1828.26</v>
+        <v>368.93</v>
       </c>
       <c r="AB16">
-        <v>34.5</v>
+        <v>40.9</v>
       </c>
       <c r="AC16">
-        <v>26905</v>
+        <v>10260</v>
       </c>
       <c r="AD16">
-        <v>30801.879000000001</v>
+        <v>21357.748</v>
       </c>
       <c r="AE16">
-        <v>18365</v>
+        <v>9078.5</v>
       </c>
       <c r="AF16">
-        <v>40210</v>
+        <v>32344</v>
       </c>
       <c r="AG16">
-        <v>22363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>9797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -4062,28 +4070,28 @@
         <v>220</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
         <v>219</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K17" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L17" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
@@ -4092,64 +4100,61 @@
         <v>47</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="R17" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="S17" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="T17" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="U17">
-        <v>1472</v>
+        <v>18</v>
       </c>
       <c r="V17" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="W17">
-        <v>119755</v>
+        <v>469510</v>
       </c>
       <c r="X17">
-        <v>49961</v>
+        <v>11441</v>
       </c>
       <c r="Y17">
-        <v>30138</v>
+        <v>286793</v>
       </c>
       <c r="Z17">
-        <v>90264435</v>
+        <v>254089</v>
       </c>
       <c r="AA17">
-        <v>1697.14</v>
+        <v>1828.26</v>
       </c>
       <c r="AB17">
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="AC17">
-        <v>34354</v>
+        <v>26905</v>
       </c>
       <c r="AD17">
-        <v>20873.024000000001</v>
+        <v>30801.879000000001</v>
       </c>
       <c r="AE17">
-        <v>8621</v>
+        <v>18365</v>
       </c>
       <c r="AF17">
-        <v>31967</v>
+        <v>40210</v>
       </c>
       <c r="AG17">
-        <v>28424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+        <v>22363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4163,28 +4168,28 @@
         <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s">
         <v>219</v>
       </c>
       <c r="I18" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K18" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L18" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
@@ -4211,49 +4216,46 @@
         <v>241</v>
       </c>
       <c r="U18">
-        <v>1903</v>
+        <v>1472</v>
       </c>
       <c r="V18" t="s">
         <v>242</v>
       </c>
       <c r="W18">
-        <v>155164</v>
+        <v>119755</v>
       </c>
       <c r="X18">
-        <v>39796</v>
+        <v>49961</v>
       </c>
       <c r="Y18">
-        <v>39367</v>
+        <v>30138</v>
       </c>
       <c r="Z18">
-        <v>109788719</v>
+        <v>90264435</v>
       </c>
       <c r="AA18">
-        <v>1974.11</v>
+        <v>1697.14</v>
       </c>
       <c r="AB18">
-        <v>32.85</v>
+        <v>33.5</v>
       </c>
       <c r="AC18">
-        <v>79557</v>
+        <v>34354</v>
       </c>
       <c r="AD18">
-        <v>9878.4449999999997</v>
+        <v>20873.024000000001</v>
       </c>
       <c r="AE18">
-        <v>1377</v>
+        <v>8621</v>
       </c>
       <c r="AF18">
-        <v>68907</v>
+        <v>31967</v>
       </c>
       <c r="AG18">
-        <v>64854</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+        <v>28424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -4267,28 +4269,28 @@
         <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G19" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H19" t="s">
         <v>219</v>
       </c>
       <c r="I19" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J19" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K19" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L19" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M19" t="s">
         <v>47</v>
@@ -4300,162 +4302,165 @@
         <v>73</v>
       </c>
       <c r="P19" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>239</v>
+      </c>
+      <c r="S19" t="s">
+        <v>240</v>
+      </c>
+      <c r="T19" t="s">
+        <v>241</v>
+      </c>
+      <c r="U19">
+        <v>1903</v>
+      </c>
+      <c r="V19" t="s">
+        <v>242</v>
+      </c>
+      <c r="W19">
+        <v>155164</v>
+      </c>
+      <c r="X19">
+        <v>39796</v>
+      </c>
+      <c r="Y19">
+        <v>39367</v>
+      </c>
+      <c r="Z19">
+        <v>109788719</v>
+      </c>
+      <c r="AA19">
+        <v>1974.11</v>
+      </c>
+      <c r="AB19">
+        <v>32.85</v>
+      </c>
+      <c r="AC19">
+        <v>79557</v>
+      </c>
+      <c r="AD19">
+        <v>9878.4449999999997</v>
+      </c>
+      <c r="AE19">
+        <v>1377</v>
+      </c>
+      <c r="AF19">
+        <v>68907</v>
+      </c>
+      <c r="AG19">
+        <v>64854</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J20" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L20" t="s">
+        <v>256</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s">
         <v>257</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q20" t="s">
         <v>258</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R20" t="s">
         <v>259</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S20" t="s">
         <v>260</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T20" t="s">
         <v>179</v>
       </c>
-      <c r="U19">
+      <c r="U20">
         <v>110</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V20" t="s">
         <v>261</v>
       </c>
-      <c r="W19">
+      <c r="W20">
         <v>1889</v>
       </c>
-      <c r="X19">
+      <c r="X20">
         <v>3080166</v>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <v>244</v>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <v>139774651</v>
       </c>
-      <c r="AA19">
+      <c r="AA20">
         <v>1830.81</v>
       </c>
-      <c r="AB19">
+      <c r="AB20">
         <v>33.422899999999998</v>
       </c>
-      <c r="AC19">
+      <c r="AC20">
         <v>26157</v>
       </c>
-      <c r="AD19">
+      <c r="AD20">
         <v>29932.281999999999</v>
       </c>
-      <c r="AE19">
+      <c r="AE20">
         <v>16142</v>
       </c>
-      <c r="AF19">
+      <c r="AF20">
         <v>26161</v>
       </c>
-      <c r="AG19">
+      <c r="AG20">
         <v>26157</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" t="s">
-        <v>265</v>
-      </c>
-      <c r="F20" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" t="s">
-        <v>263</v>
-      </c>
-      <c r="I20" t="s">
-        <v>268</v>
-      </c>
-      <c r="J20" t="s">
-        <v>269</v>
-      </c>
-      <c r="K20" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" t="s">
-        <v>271</v>
-      </c>
-      <c r="M20" t="s">
-        <v>272</v>
-      </c>
-      <c r="N20" t="s">
-        <v>273</v>
-      </c>
-      <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>274</v>
-      </c>
-      <c r="R20" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" t="s">
-        <v>275</v>
-      </c>
-      <c r="T20" t="s">
-        <v>47</v>
-      </c>
-      <c r="U20" t="s">
-        <v>47</v>
-      </c>
-      <c r="V20" t="s">
-        <v>47</v>
-      </c>
-      <c r="W20">
-        <v>2442</v>
-      </c>
-      <c r="X20">
-        <v>21485538</v>
-      </c>
-      <c r="Y20">
-        <v>1870</v>
-      </c>
-      <c r="Z20">
-        <v>25286936</v>
-      </c>
-      <c r="AA20">
-        <v>139.99100000000001</v>
-      </c>
-      <c r="AB20">
-        <v>42.028300000000002</v>
-      </c>
-      <c r="AC20">
-        <v>13968</v>
-      </c>
-      <c r="AD20">
-        <v>6960.518</v>
-      </c>
-      <c r="AE20">
-        <v>2164</v>
-      </c>
-      <c r="AF20">
-        <v>30719</v>
-      </c>
-      <c r="AG20">
-        <v>13968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
         <v>262</v>
       </c>
@@ -4463,40 +4468,40 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G21" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="J21" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="K21" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="L21" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="M21" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="N21" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="O21" t="s">
         <v>59</v>
@@ -4505,179 +4510,286 @@
         <v>47</v>
       </c>
       <c r="Q21" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="R21" t="s">
         <v>60</v>
       </c>
       <c r="S21" t="s">
+        <v>275</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" t="s">
+        <v>47</v>
+      </c>
+      <c r="W21">
+        <v>2442</v>
+      </c>
+      <c r="X21">
+        <v>21485538</v>
+      </c>
+      <c r="Y21">
+        <v>1870</v>
+      </c>
+      <c r="Z21">
+        <v>25286936</v>
+      </c>
+      <c r="AA21">
+        <v>139.99100000000001</v>
+      </c>
+      <c r="AB21">
+        <v>42.028300000000002</v>
+      </c>
+      <c r="AC21">
+        <v>13968</v>
+      </c>
+      <c r="AD21">
+        <v>6960.518</v>
+      </c>
+      <c r="AE21">
+        <v>2164</v>
+      </c>
+      <c r="AF21">
+        <v>30719</v>
+      </c>
+      <c r="AG21">
+        <v>13968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I22" t="s">
+        <v>281</v>
+      </c>
+      <c r="J22" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" t="s">
+        <v>283</v>
+      </c>
+      <c r="L22" t="s">
+        <v>284</v>
+      </c>
+      <c r="M22" t="s">
+        <v>285</v>
+      </c>
+      <c r="N22" t="s">
+        <v>286</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>287</v>
+      </c>
+      <c r="R22" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" t="s">
         <v>288</v>
       </c>
-      <c r="T21" t="s">
-        <v>47</v>
-      </c>
-      <c r="U21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V21" t="s">
-        <v>47</v>
-      </c>
-      <c r="W21">
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22">
         <v>88672</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <v>15508</v>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <v>43462</v>
       </c>
-      <c r="Z21">
+      <c r="Z22">
         <v>4008358</v>
       </c>
-      <c r="AA21">
+      <c r="AA22">
         <v>429.01900000000001</v>
       </c>
-      <c r="AB21">
+      <c r="AB22">
         <v>38.176900000000003</v>
       </c>
-      <c r="AC21">
+      <c r="AC22">
         <v>14623</v>
       </c>
-      <c r="AD21">
+      <c r="AD22">
         <v>6042.4790000000003</v>
       </c>
-      <c r="AE21">
+      <c r="AE22">
         <v>3566</v>
       </c>
-      <c r="AF21">
+      <c r="AF22">
         <v>14623</v>
       </c>
-      <c r="AG21">
+      <c r="AG22">
         <v>14623</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>14048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>178365</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>44241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>818</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>11016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
         <v>123558</v>
       </c>
     </row>
@@ -4687,41 +4799,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -4738,7 +4848,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4752,10 +4862,10 @@
         <v>62804</v>
       </c>
       <c r="E7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4769,10 +4879,10 @@
         <v>63308</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>14</v>
       </c>
@@ -4786,10 +4896,10 @@
         <v>64370</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>53</v>
       </c>
@@ -4803,10 +4913,10 @@
         <v>64523</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>60</v>
       </c>
@@ -4820,10 +4930,10 @@
         <v>65035</v>
       </c>
       <c r="E11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>43</v>
       </c>
@@ -4837,10 +4947,10 @@
         <v>65119</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>37</v>
       </c>
@@ -4854,10 +4964,10 @@
         <v>65230</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4871,10 +4981,10 @@
         <v>65298</v>
       </c>
       <c r="E14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4888,10 +4998,10 @@
         <v>65412</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>70</v>
       </c>
@@ -4905,10 +5015,10 @@
         <v>65424</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>71</v>
       </c>
@@ -4922,10 +5032,10 @@
         <v>65424</v>
       </c>
       <c r="E17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>63</v>
       </c>
@@ -4939,10 +5049,10 @@
         <v>65518</v>
       </c>
       <c r="E18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>44</v>
       </c>
@@ -4956,10 +5066,10 @@
         <v>65779</v>
       </c>
       <c r="E19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>21</v>
       </c>
@@ -4973,10 +5083,10 @@
         <v>65892</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>59</v>
       </c>
@@ -4990,10 +5100,10 @@
         <v>66156</v>
       </c>
       <c r="E21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>64</v>
       </c>
@@ -5007,10 +5117,10 @@
         <v>66176</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>15</v>
       </c>
@@ -5024,10 +5134,10 @@
         <v>66186</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>66</v>
       </c>
@@ -5041,10 +5151,10 @@
         <v>66416</v>
       </c>
       <c r="E24" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>36</v>
       </c>
@@ -5058,10 +5168,10 @@
         <v>66476</v>
       </c>
       <c r="E25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>9</v>
       </c>
@@ -5075,10 +5185,10 @@
         <v>66671</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5092,10 +5202,10 @@
         <v>66683</v>
       </c>
       <c r="E27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>72</v>
       </c>
@@ -5109,10 +5219,10 @@
         <v>66777</v>
       </c>
       <c r="E28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>58</v>
       </c>
@@ -5126,10 +5236,10 @@
         <v>66944</v>
       </c>
       <c r="E29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>46</v>
       </c>
@@ -5143,10 +5253,10 @@
         <v>66956</v>
       </c>
       <c r="E30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>16</v>
       </c>
@@ -5160,10 +5270,10 @@
         <v>66975</v>
       </c>
       <c r="E31" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>67</v>
       </c>
@@ -5177,10 +5287,10 @@
         <v>67012</v>
       </c>
       <c r="E32" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>35</v>
       </c>
@@ -5194,10 +5304,10 @@
         <v>67116</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>68</v>
       </c>
@@ -5211,10 +5321,10 @@
         <v>67175</v>
       </c>
       <c r="E34" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>47</v>
       </c>
@@ -5228,10 +5338,10 @@
         <v>67280</v>
       </c>
       <c r="E35" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>61</v>
       </c>
@@ -5245,10 +5355,10 @@
         <v>67290</v>
       </c>
       <c r="E36" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>18</v>
       </c>
@@ -5262,10 +5372,10 @@
         <v>67330</v>
       </c>
       <c r="E37" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>62</v>
       </c>
@@ -5279,10 +5389,10 @@
         <v>67339</v>
       </c>
       <c r="E38" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5296,10 +5406,10 @@
         <v>67343</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>2</v>
       </c>
@@ -5313,10 +5423,10 @@
         <v>67373</v>
       </c>
       <c r="E40" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5330,10 +5440,10 @@
         <v>67397</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>5</v>
       </c>
@@ -5347,10 +5457,10 @@
         <v>67456</v>
       </c>
       <c r="E42" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>6</v>
       </c>
@@ -5364,10 +5474,10 @@
         <v>67508</v>
       </c>
       <c r="E43" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>73</v>
       </c>
@@ -5381,10 +5491,10 @@
         <v>67515</v>
       </c>
       <c r="E44" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>30</v>
       </c>
@@ -5398,10 +5508,10 @@
         <v>67601</v>
       </c>
       <c r="E45" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>19</v>
       </c>
@@ -5415,10 +5525,10 @@
         <v>67634</v>
       </c>
       <c r="E46" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>50</v>
       </c>
@@ -5432,10 +5542,10 @@
         <v>67644</v>
       </c>
       <c r="E47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>52</v>
       </c>
@@ -5449,10 +5559,10 @@
         <v>67644</v>
       </c>
       <c r="E48" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>54</v>
       </c>
@@ -5466,10 +5576,10 @@
         <v>67656</v>
       </c>
       <c r="E49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5483,10 +5593,10 @@
         <v>67936</v>
       </c>
       <c r="E50" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>57</v>
       </c>
@@ -5500,10 +5610,10 @@
         <v>68044</v>
       </c>
       <c r="E51" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>55</v>
       </c>
@@ -5517,10 +5627,10 @@
         <v>68104</v>
       </c>
       <c r="E52" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>48</v>
       </c>
@@ -5534,10 +5644,10 @@
         <v>68149</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>56</v>
       </c>
@@ -5551,10 +5661,10 @@
         <v>68151</v>
       </c>
       <c r="E54" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>65</v>
       </c>
@@ -5568,10 +5678,10 @@
         <v>68156</v>
       </c>
       <c r="E55" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>10</v>
       </c>
@@ -5585,10 +5695,10 @@
         <v>68170</v>
       </c>
       <c r="E56" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>31</v>
       </c>
@@ -5602,10 +5712,10 @@
         <v>68231</v>
       </c>
       <c r="E57" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>34</v>
       </c>
@@ -5619,10 +5729,10 @@
         <v>68239</v>
       </c>
       <c r="E58" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>27</v>
       </c>
@@ -5636,10 +5746,10 @@
         <v>68438</v>
       </c>
       <c r="E59" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>26</v>
       </c>
@@ -5653,10 +5763,10 @@
         <v>68473</v>
       </c>
       <c r="E60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5670,10 +5780,10 @@
         <v>68476</v>
       </c>
       <c r="E61" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>13</v>
       </c>
@@ -5687,10 +5797,10 @@
         <v>68690</v>
       </c>
       <c r="E62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>45</v>
       </c>
@@ -5704,10 +5814,10 @@
         <v>68724</v>
       </c>
       <c r="E63" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>12</v>
       </c>
@@ -5721,10 +5831,10 @@
         <v>68764</v>
       </c>
       <c r="E64" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>42</v>
       </c>
@@ -5738,10 +5848,10 @@
         <v>68803</v>
       </c>
       <c r="E65" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>20</v>
       </c>
@@ -5755,10 +5865,10 @@
         <v>68924</v>
       </c>
       <c r="E66" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>33</v>
       </c>
@@ -5772,10 +5882,10 @@
         <v>68955</v>
       </c>
       <c r="E67" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>24</v>
       </c>
@@ -5789,10 +5899,10 @@
         <v>68959</v>
       </c>
       <c r="E68" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>22</v>
       </c>
@@ -5806,10 +5916,10 @@
         <v>69013</v>
       </c>
       <c r="E69" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>32</v>
       </c>
@@ -5823,10 +5933,10 @@
         <v>69086</v>
       </c>
       <c r="E70" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>17</v>
       </c>
@@ -5840,10 +5950,10 @@
         <v>69167</v>
       </c>
       <c r="E71" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>23</v>
       </c>
@@ -5857,10 +5967,10 @@
         <v>69383</v>
       </c>
       <c r="E72" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>40</v>
       </c>
@@ -5874,10 +5984,10 @@
         <v>69653</v>
       </c>
       <c r="E73" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>25</v>
       </c>
@@ -5891,10 +6001,10 @@
         <v>69764</v>
       </c>
       <c r="E74" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>28</v>
       </c>
@@ -5908,10 +6018,10 @@
         <v>69787</v>
       </c>
       <c r="E75" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>29</v>
       </c>
@@ -5925,10 +6035,10 @@
         <v>69787</v>
       </c>
       <c r="E76" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>41</v>
       </c>
@@ -5942,10 +6052,10 @@
         <v>69887</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>69</v>
       </c>
@@ -5959,10 +6069,10 @@
         <v>69887</v>
       </c>
       <c r="E78" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>51</v>
       </c>
@@ -5976,10 +6086,10 @@
         <v>70175</v>
       </c>
       <c r="E79" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>49</v>
       </c>
@@ -5993,7 +6103,7 @@
         <v>70769</v>
       </c>
       <c r="E80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6002,41 +6112,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -6053,7 +6161,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>0</v>
       </c>
@@ -6067,10 +6175,10 @@
         <v>65364</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>70</v>
       </c>
@@ -6084,10 +6192,10 @@
         <v>65612</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6101,10 +6209,10 @@
         <v>65861</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>53</v>
       </c>
@@ -6118,10 +6226,10 @@
         <v>66208</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>42</v>
       </c>
@@ -6135,10 +6243,10 @@
         <v>66847</v>
       </c>
       <c r="E11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>5</v>
       </c>
@@ -6152,10 +6260,10 @@
         <v>66930</v>
       </c>
       <c r="E12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>62</v>
       </c>
@@ -6169,10 +6277,10 @@
         <v>67195</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>41</v>
       </c>
@@ -6186,10 +6294,10 @@
         <v>67540</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>61</v>
       </c>
@@ -6203,10 +6311,10 @@
         <v>67719</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>60</v>
       </c>
@@ -6220,10 +6328,10 @@
         <v>67778</v>
       </c>
       <c r="E16" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6237,10 +6345,10 @@
         <v>67858</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>40</v>
       </c>
@@ -6254,10 +6362,10 @@
         <v>67907</v>
       </c>
       <c r="E18" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>12</v>
       </c>
@@ -6271,10 +6379,10 @@
         <v>68014</v>
       </c>
       <c r="E19" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>24</v>
       </c>
@@ -6288,10 +6396,10 @@
         <v>68453</v>
       </c>
       <c r="E20" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>14</v>
       </c>
@@ -6305,10 +6413,10 @@
         <v>68709</v>
       </c>
       <c r="E21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>59</v>
       </c>
@@ -6322,10 +6430,10 @@
         <v>68998</v>
       </c>
       <c r="E22" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>39</v>
       </c>
@@ -6339,10 +6447,10 @@
         <v>69128</v>
       </c>
       <c r="E23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>6</v>
       </c>
@@ -6356,10 +6464,10 @@
         <v>69231</v>
       </c>
       <c r="E24" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>11</v>
       </c>
@@ -6373,10 +6481,10 @@
         <v>69270</v>
       </c>
       <c r="E25" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>64</v>
       </c>
@@ -6390,10 +6498,10 @@
         <v>69487</v>
       </c>
       <c r="E26" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>13</v>
       </c>
@@ -6407,10 +6515,10 @@
         <v>69502</v>
       </c>
       <c r="E27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>67</v>
       </c>
@@ -6424,10 +6532,10 @@
         <v>69577</v>
       </c>
       <c r="E28" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>50</v>
       </c>
@@ -6441,10 +6549,10 @@
         <v>69662</v>
       </c>
       <c r="E29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>44</v>
       </c>
@@ -6458,10 +6566,10 @@
         <v>69674</v>
       </c>
       <c r="E30" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>71</v>
       </c>
@@ -6475,10 +6583,10 @@
         <v>69702</v>
       </c>
       <c r="E31" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>16</v>
       </c>
@@ -6492,10 +6600,10 @@
         <v>69926</v>
       </c>
       <c r="E32" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>27</v>
       </c>
@@ -6509,10 +6617,10 @@
         <v>69937</v>
       </c>
       <c r="E33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>49</v>
       </c>
@@ -6526,10 +6634,10 @@
         <v>69941</v>
       </c>
       <c r="E34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>38</v>
       </c>
@@ -6543,10 +6651,10 @@
         <v>69981</v>
       </c>
       <c r="E35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>58</v>
       </c>
@@ -6560,10 +6668,10 @@
         <v>69985</v>
       </c>
       <c r="E36" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>37</v>
       </c>
@@ -6577,10 +6685,10 @@
         <v>70037</v>
       </c>
       <c r="E37" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>57</v>
       </c>
@@ -6594,10 +6702,10 @@
         <v>70040</v>
       </c>
       <c r="E38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>10</v>
       </c>
@@ -6611,10 +6719,10 @@
         <v>70047</v>
       </c>
       <c r="E39" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>73</v>
       </c>
@@ -6628,10 +6736,10 @@
         <v>70057</v>
       </c>
       <c r="E40" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>66</v>
       </c>
@@ -6645,10 +6753,10 @@
         <v>70085</v>
       </c>
       <c r="E41" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>9</v>
       </c>
@@ -6662,10 +6770,10 @@
         <v>70099</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>30</v>
       </c>
@@ -6679,10 +6787,10 @@
         <v>70129</v>
       </c>
       <c r="E43" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>54</v>
       </c>
@@ -6696,10 +6804,10 @@
         <v>70208</v>
       </c>
       <c r="E44" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>47</v>
       </c>
@@ -6713,10 +6821,10 @@
         <v>70211</v>
       </c>
       <c r="E45" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>48</v>
       </c>
@@ -6730,10 +6838,10 @@
         <v>70211</v>
       </c>
       <c r="E46" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>26</v>
       </c>
@@ -6747,10 +6855,10 @@
         <v>70241</v>
       </c>
       <c r="E47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6764,10 +6872,10 @@
         <v>70500</v>
       </c>
       <c r="E48" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>63</v>
       </c>
@@ -6781,10 +6889,10 @@
         <v>70591</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>72</v>
       </c>
@@ -6798,10 +6906,10 @@
         <v>70699</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>56</v>
       </c>
@@ -6815,10 +6923,10 @@
         <v>70724</v>
       </c>
       <c r="E51" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>3</v>
       </c>
@@ -6832,10 +6940,10 @@
         <v>70730</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>43</v>
       </c>
@@ -6849,10 +6957,10 @@
         <v>70801</v>
       </c>
       <c r="E53" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6866,10 +6974,10 @@
         <v>70896</v>
       </c>
       <c r="E54" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>51</v>
       </c>
@@ -6883,10 +6991,10 @@
         <v>70899</v>
       </c>
       <c r="E55" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>22</v>
       </c>
@@ -6900,10 +7008,10 @@
         <v>70989</v>
       </c>
       <c r="E56" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>21</v>
       </c>
@@ -6917,10 +7025,10 @@
         <v>71025</v>
       </c>
       <c r="E57" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>15</v>
       </c>
@@ -6934,10 +7042,10 @@
         <v>71033</v>
       </c>
       <c r="E58" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>68</v>
       </c>
@@ -6951,10 +7059,10 @@
         <v>71244</v>
       </c>
       <c r="E59" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>69</v>
       </c>
@@ -6968,10 +7076,10 @@
         <v>71244</v>
       </c>
       <c r="E60" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>4</v>
       </c>
@@ -6985,10 +7093,10 @@
         <v>71250</v>
       </c>
       <c r="E61" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>55</v>
       </c>
@@ -7002,10 +7110,10 @@
         <v>71294</v>
       </c>
       <c r="E62" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7019,10 +7127,10 @@
         <v>71324</v>
       </c>
       <c r="E63" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>36</v>
       </c>
@@ -7036,10 +7144,10 @@
         <v>71362</v>
       </c>
       <c r="E64" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>28</v>
       </c>
@@ -7053,10 +7161,10 @@
         <v>71390</v>
       </c>
       <c r="E65" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>33</v>
       </c>
@@ -7070,10 +7178,10 @@
         <v>71508</v>
       </c>
       <c r="E66" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>31</v>
       </c>
@@ -7087,10 +7195,10 @@
         <v>71515</v>
       </c>
       <c r="E67" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>19</v>
       </c>
@@ -7104,10 +7212,10 @@
         <v>71519</v>
       </c>
       <c r="E68" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>17</v>
       </c>
@@ -7121,10 +7229,10 @@
         <v>71573</v>
       </c>
       <c r="E69" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>32</v>
       </c>
@@ -7138,10 +7246,10 @@
         <v>71720</v>
       </c>
       <c r="E70" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>18</v>
       </c>
@@ -7155,10 +7263,10 @@
         <v>71943</v>
       </c>
       <c r="E71" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>34</v>
       </c>
@@ -7172,10 +7280,10 @@
         <v>72213</v>
       </c>
       <c r="E72" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>20</v>
       </c>
@@ -7189,10 +7297,10 @@
         <v>72324</v>
       </c>
       <c r="E73" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>25</v>
       </c>
@@ -7206,10 +7314,10 @@
         <v>72348</v>
       </c>
       <c r="E74" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>23</v>
       </c>
@@ -7223,10 +7331,10 @@
         <v>72348</v>
       </c>
       <c r="E75" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>35</v>
       </c>
@@ -7240,10 +7348,10 @@
         <v>72447</v>
       </c>
       <c r="E76" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>65</v>
       </c>
@@ -7257,10 +7365,10 @@
         <v>72461</v>
       </c>
       <c r="E77" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>45</v>
       </c>
@@ -7274,10 +7382,10 @@
         <v>72732</v>
       </c>
       <c r="E78" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>29</v>
       </c>
@@ -7291,10 +7399,10 @@
         <v>73260</v>
       </c>
       <c r="E79" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>46</v>
       </c>
@@ -7308,7 +7416,7 @@
         <v>73328</v>
       </c>
       <c r="E80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7317,41 +7425,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7368,7 +7476,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7382,10 +7490,10 @@
         <v>69064</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7399,10 +7507,10 @@
         <v>69444</v>
       </c>
       <c r="E8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>53</v>
       </c>
@@ -7416,10 +7524,10 @@
         <v>69544</v>
       </c>
       <c r="E9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5</v>
       </c>
@@ -7433,10 +7541,10 @@
         <v>70525</v>
       </c>
       <c r="E10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>50</v>
       </c>
@@ -7450,10 +7558,10 @@
         <v>70969</v>
       </c>
       <c r="E11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7467,10 +7575,10 @@
         <v>71486</v>
       </c>
       <c r="E12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7484,10 +7592,10 @@
         <v>71524</v>
       </c>
       <c r="E13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>39</v>
       </c>
@@ -7501,10 +7609,10 @@
         <v>71572</v>
       </c>
       <c r="E14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>37</v>
       </c>
@@ -7518,10 +7626,10 @@
         <v>71716</v>
       </c>
       <c r="E15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>30</v>
       </c>
@@ -7535,10 +7643,10 @@
         <v>72141</v>
       </c>
       <c r="E16" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>38</v>
       </c>
@@ -7552,10 +7660,10 @@
         <v>72146</v>
       </c>
       <c r="E17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7569,10 +7677,10 @@
         <v>72445</v>
       </c>
       <c r="E18" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>6</v>
       </c>
@@ -7586,10 +7694,10 @@
         <v>72732</v>
       </c>
       <c r="E19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>11</v>
       </c>
@@ -7603,10 +7711,10 @@
         <v>72799</v>
       </c>
       <c r="E20" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>36</v>
       </c>
@@ -7620,10 +7728,10 @@
         <v>72983</v>
       </c>
       <c r="E21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>54</v>
       </c>
@@ -7637,10 +7745,10 @@
         <v>73064</v>
       </c>
       <c r="E22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>13</v>
       </c>
@@ -7654,10 +7762,10 @@
         <v>73241</v>
       </c>
       <c r="E23" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
@@ -7671,10 +7779,10 @@
         <v>73262</v>
       </c>
       <c r="E24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>44</v>
       </c>
@@ -7688,10 +7796,10 @@
         <v>73363</v>
       </c>
       <c r="E25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7705,10 +7813,10 @@
         <v>73366</v>
       </c>
       <c r="E26" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7722,10 +7830,10 @@
         <v>73549</v>
       </c>
       <c r="E27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>9</v>
       </c>
@@ -7739,10 +7847,10 @@
         <v>73603</v>
       </c>
       <c r="E28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>24</v>
       </c>
@@ -7756,10 +7864,10 @@
         <v>73650</v>
       </c>
       <c r="E29" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>51</v>
       </c>
@@ -7773,10 +7881,10 @@
         <v>73659</v>
       </c>
       <c r="E30" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>47</v>
       </c>
@@ -7790,10 +7898,10 @@
         <v>73688</v>
       </c>
       <c r="E31" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>16</v>
       </c>
@@ -7807,10 +7915,10 @@
         <v>73714</v>
       </c>
       <c r="E32" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>35</v>
       </c>
@@ -7824,10 +7932,10 @@
         <v>73761</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>34</v>
       </c>
@@ -7841,10 +7949,10 @@
         <v>73812</v>
       </c>
       <c r="E34" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>28</v>
       </c>
@@ -7858,10 +7966,10 @@
         <v>73838</v>
       </c>
       <c r="E35" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>46</v>
       </c>
@@ -7875,10 +7983,10 @@
         <v>73991</v>
       </c>
       <c r="E36" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>22</v>
       </c>
@@ -7892,10 +8000,10 @@
         <v>74213</v>
       </c>
       <c r="E37" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>3</v>
       </c>
@@ -7909,10 +8017,10 @@
         <v>74324</v>
       </c>
       <c r="E38" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>23</v>
       </c>
@@ -7926,10 +8034,10 @@
         <v>74353</v>
       </c>
       <c r="E39" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>56</v>
       </c>
@@ -7943,10 +8051,10 @@
         <v>74354</v>
       </c>
       <c r="E40" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7960,10 +8068,10 @@
         <v>74390</v>
       </c>
       <c r="E41" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>21</v>
       </c>
@@ -7977,10 +8085,10 @@
         <v>74434</v>
       </c>
       <c r="E42" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>43</v>
       </c>
@@ -7994,10 +8102,10 @@
         <v>74486</v>
       </c>
       <c r="E43" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8011,10 +8119,10 @@
         <v>74528</v>
       </c>
       <c r="E44" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>26</v>
       </c>
@@ -8028,10 +8136,10 @@
         <v>74650</v>
       </c>
       <c r="E45" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>15</v>
       </c>
@@ -8045,10 +8153,10 @@
         <v>74817</v>
       </c>
       <c r="E46" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>4</v>
       </c>
@@ -8062,10 +8170,10 @@
         <v>74844</v>
       </c>
       <c r="E47" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>55</v>
       </c>
@@ -8079,10 +8187,10 @@
         <v>74931</v>
       </c>
       <c r="E48" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2</v>
       </c>
@@ -8096,10 +8204,10 @@
         <v>74954</v>
       </c>
       <c r="E49" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>19</v>
       </c>
@@ -8113,10 +8221,10 @@
         <v>75032</v>
       </c>
       <c r="E50" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>17</v>
       </c>
@@ -8130,10 +8238,10 @@
         <v>75165</v>
       </c>
       <c r="E51" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>48</v>
       </c>
@@ -8147,10 +8255,10 @@
         <v>75353</v>
       </c>
       <c r="E52" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>49</v>
       </c>
@@ -8164,10 +8272,10 @@
         <v>75353</v>
       </c>
       <c r="E53" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>33</v>
       </c>
@@ -8181,10 +8289,10 @@
         <v>75357</v>
       </c>
       <c r="E54" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>52</v>
       </c>
@@ -8198,10 +8306,10 @@
         <v>75361</v>
       </c>
       <c r="E55" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>18</v>
       </c>
@@ -8215,10 +8323,10 @@
         <v>75448</v>
       </c>
       <c r="E56" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>32</v>
       </c>
@@ -8232,10 +8340,10 @@
         <v>75582</v>
       </c>
       <c r="E57" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>41</v>
       </c>
@@ -8249,10 +8357,10 @@
         <v>75605</v>
       </c>
       <c r="E58" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>20</v>
       </c>
@@ -8266,10 +8374,10 @@
         <v>75743</v>
       </c>
       <c r="E59" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>29</v>
       </c>
@@ -8283,10 +8391,10 @@
         <v>75751</v>
       </c>
       <c r="E60" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>31</v>
       </c>
@@ -8300,10 +8408,10 @@
         <v>75751</v>
       </c>
       <c r="E61" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>45</v>
       </c>
@@ -8317,10 +8425,10 @@
         <v>76139</v>
       </c>
       <c r="E62" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>27</v>
       </c>
@@ -8334,7 +8442,575 @@
         <v>76566</v>
       </c>
       <c r="E63" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBBA39F-F3F4-4DE8-8C1A-9828E19601A2}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>525</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.9861285338309995E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.531376764386844</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.1903471799309</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1363</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.71139566486376E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.12517956723343701</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.1753771059489999</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.25398585703012E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.1799686845806501</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.3679450544429002</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.38677021493819E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.15799103805606399</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.6198622565813801</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2615</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.16621430425826E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.2457914868939497E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.56663037657555</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6.2033547358472101E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.22408461842500099</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.66433397021813601</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.3282336766287601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2137</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.221078374654856</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.726062447922319</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.3739423607344099</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.130842289013955</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.43285853170725602</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.3964911649284999</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.85336699514870895</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2.9552451314793302</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.4544885672610501</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2294</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.113773590232431</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.27383306895023501</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.83904778650310696</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.5637939912816798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1502</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6.4762675718972096E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.42440995239861401</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2.2565614340900502</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.27158240926065902</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.68450631716370203</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.62602897574375</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3.4761163634366299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.0257008901430701E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.15101229056690499</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.8958940676901901</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="5">
+        <v>298</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.38735212268421398</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.6796634932214798</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.4992178360410299E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.109688917847675</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.55903552050941396</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2.2336747404944202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8.6038879789667497E-2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1.20170115980224</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1.3500422841414501</v>
+      </c>
+      <c r="H23" s="6">
+        <v>3.4230465353141901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1877</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.17736825733259101</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.53015081586878099</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.2392481221117</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.8039744778914302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E25" s="6">
+        <v>8.3427647441365604E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.40644125713337897</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2.1871995391427799</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="5">
+        <v>502</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.7356572716896901</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2.0592327349511499</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/supplement/supplemental-tables.xlsx
+++ b/manuscript/supplement/supplemental-tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\spider-wgd\manuscript\supplement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E94D7F-4811-478F-BAB3-66EFD37D1E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296528C-B039-480E-8B51-7A0A7075A0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableS1" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="tableS4" sheetId="4" r:id="rId4"/>
     <sheet name="tableS5" sheetId="5" r:id="rId5"/>
     <sheet name="tableS6" sheetId="6" r:id="rId6"/>
+    <sheet name="tableS7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="551">
   <si>
     <t>Step</t>
   </si>
@@ -1657,6 +1658,27 @@
   </si>
   <si>
     <t># Table S6: Results of SLEDGe analysis on Ks distributions of chelicerates</t>
+  </si>
+  <si>
+    <t>Species A</t>
+  </si>
+  <si>
+    <t>Species B</t>
+  </si>
+  <si>
+    <t>Median Ortholog Ks</t>
+  </si>
+  <si>
+    <t># Table S7:</t>
+  </si>
+  <si>
+    <t># Species A: The abbreviation (see Table S1) for the first species in the ortholog comparison</t>
+  </si>
+  <si>
+    <t># Species B: The abbreviation (see Table S2) for the second species in the ortholog comparison</t>
+  </si>
+  <si>
+    <t># Median Ortholog Ks: Median of all ortholog Ks values under 5.0 for each species pair</t>
   </si>
 </sst>
 </file>
@@ -2250,9 +2272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2290,7 +2312,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2396,7 +2418,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2538,7 +2560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8454,7 +8476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBBA39F-F3F4-4DE8-8C1A-9828E19601A2}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -9016,4 +9038,143 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60608640-63B5-4366-A4A5-D16E0E336272}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6">
+        <v>0.28360000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>3.9573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9">
+        <v>3.9603999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>4.3573000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11">
+        <v>0.28439999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12">
+        <v>3.4962499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13">
+        <v>4.0571000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/manuscript/supplement/supplemental-tables.xlsx
+++ b/manuscript/supplement/supplemental-tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\arthropods\spider-wgd\manuscript\supplement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0602FB-938F-4F21-9D0C-C3292C58ECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F953DC-DD77-4641-AC61-7AF87B68EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableS1" sheetId="2" r:id="rId1"/>
@@ -6210,8 +6210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D4E202-AA9A-4CA1-BC30-1E09A9D26FE0}">
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23357,7 +23357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B413B96-3C82-475B-97D0-5DA4EE7C175F}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
